--- a/app/Licenciatura_em_Gestao_de_Empresas_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Gestao_de_Empresas_Pos_Laboral.xlsx
@@ -42,6 +42,770 @@
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
+  <si>
+    <t>UNIVERSIDADE EDUARDO MONDLANE</t>
+  </si>
+  <si>
+    <t>BOLETIM DE MATRÍCULA</t>
+  </si>
+  <si>
+    <t>Faculdade de Letras e Ciencias Sociais</t>
+  </si>
+  <si>
+    <t>Licenciatura em Administração Pública</t>
+  </si>
+  <si>
+    <t>Ano Lectivo:</t>
+  </si>
+  <si>
+    <t>Número de Estudante:</t>
+  </si>
+  <si>
+    <t>I.DADOS PESSOAIS</t>
+  </si>
+  <si>
+    <t>Apelido</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Nome Completo</t>
+  </si>
+  <si>
+    <t>Elisio</t>
+  </si>
+  <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>Filho de</t>
+  </si>
+  <si>
+    <t>E de</t>
+  </si>
+  <si>
+    <t>Natural de</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Nacionalidade</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Documento de Identificação</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Emitido Por</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>II.ENDEREÇO - TEMPO LECTIVO</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Telefone Fixo</t>
+  </si>
+  <si>
+    <t>Quarteirão</t>
+  </si>
+  <si>
+    <t>Tel. Emergencia</t>
+  </si>
+  <si>
+    <t>III. HISTORIAL ACADÉMICO</t>
+  </si>
+  <si>
+    <t>Ano de conclusão do nível anterior</t>
+  </si>
+  <si>
+    <t>Nota Final</t>
+  </si>
+  <si>
+    <t>Local de Conclusão</t>
+  </si>
+  <si>
+    <t>Província</t>
+  </si>
+  <si>
+    <t>IV. COMPROMISSO DE HONRA</t>
+  </si>
+  <si>
+    <t>Juro por minhha honra que todos os dados são verdadeiros e fidedignos</t>
+  </si>
+  <si>
+    <t>Data automática</t>
+  </si>
+  <si>
+    <t>Assinatura do estudante</t>
+  </si>
+  <si>
+    <t>_______________________________________________________</t>
+  </si>
+  <si>
+    <t>Universidade Eduardo Mondlane</t>
+  </si>
+  <si>
+    <t>Escola Superior de Negocios e Emprendedorismo</t>
+  </si>
+  <si>
+    <t>Licenciatura em Gestão de Empresas (Pós Laboral)</t>
+  </si>
+  <si>
+    <t>Vilanculo</t>
+  </si>
+  <si>
+    <t>Amilcar Adriano</t>
+  </si>
+  <si>
+    <t>1987-10-06</t>
+  </si>
+  <si>
+    <t>Adriano Silva Vilanc</t>
+  </si>
+  <si>
+    <t>Lorta Zacarias Homo</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>100100294016Q</t>
+  </si>
+  <si>
+    <t>+258828709640</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Mucoque</t>
+  </si>
+  <si>
+    <t>Sitoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvano Junior Candido </t>
+  </si>
+  <si>
+    <t>1996-04-04</t>
+  </si>
+  <si>
+    <t>Silvano Mario Sitoe</t>
+  </si>
+  <si>
+    <t>Almina Tivane</t>
+  </si>
+  <si>
+    <t>110102280353N</t>
+  </si>
+  <si>
+    <t>+258844620452</t>
+  </si>
+  <si>
+    <t>Outra - Prov Maputo</t>
+  </si>
+  <si>
+    <t>Rugnate</t>
+  </si>
+  <si>
+    <t>Daude Zulficar</t>
+  </si>
+  <si>
+    <t>1995-10-27</t>
+  </si>
+  <si>
+    <t>Zulficar Daud Rugnate</t>
+  </si>
+  <si>
+    <t>Madina Cassamo Jala</t>
+  </si>
+  <si>
+    <t>090101296970I</t>
+  </si>
+  <si>
+    <t>+258845942091</t>
+  </si>
+  <si>
+    <t>Outra - Gaza</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Joselma Jose Rodrigues</t>
+  </si>
+  <si>
+    <t>1994-11-12</t>
+  </si>
+  <si>
+    <t>Jose Rodrigues Pedro</t>
+  </si>
+  <si>
+    <t>Julia Moscarna Cachoro</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>050101493159C</t>
+  </si>
+  <si>
+    <t>+258844855124</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Emilia Dausse</t>
+  </si>
+  <si>
+    <t>Novela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helder Alexandre </t>
+  </si>
+  <si>
+    <t>1981-06-25</t>
+  </si>
+  <si>
+    <t>Alexandre Amos Novela</t>
+  </si>
+  <si>
+    <t>Maria Candida Lopes</t>
+  </si>
+  <si>
+    <t>100104158864J</t>
+  </si>
+  <si>
+    <t>+258826499740</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t>Nhamuenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catarina  Armando </t>
+  </si>
+  <si>
+    <t>1995-09-06</t>
+  </si>
+  <si>
+    <t>Armando A.j.nhamuenda</t>
+  </si>
+  <si>
+    <t>Maria Augusta A. Mulhanga</t>
+  </si>
+  <si>
+    <t>100102617607I</t>
+  </si>
+  <si>
+    <t>+258840742598</t>
+  </si>
+  <si>
+    <t>Escola Francisco Manyanga</t>
+  </si>
+  <si>
+    <t>Nhabomba</t>
+  </si>
+  <si>
+    <t>Eduardo Vasco</t>
+  </si>
+  <si>
+    <t>1984-02-03</t>
+  </si>
+  <si>
+    <t>Vasco Nhabomba</t>
+  </si>
+  <si>
+    <t>Laura Andre Faduco</t>
+  </si>
+  <si>
+    <t>090304743598M</t>
+  </si>
+  <si>
+    <t>+258845951960</t>
+  </si>
+  <si>
+    <t>Ndove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos Riquito Baptista </t>
+  </si>
+  <si>
+    <t>1990-08-28</t>
+  </si>
+  <si>
+    <t>Baptista Ndove</t>
+  </si>
+  <si>
+    <t>Saquina Tivane</t>
+  </si>
+  <si>
+    <t>110101437865P</t>
+  </si>
+  <si>
+    <t>+258826214593</t>
+  </si>
+  <si>
+    <t>Mutepa</t>
+  </si>
+  <si>
+    <t>OfÉlio Fernando</t>
+  </si>
+  <si>
+    <t>1990-09-07</t>
+  </si>
+  <si>
+    <t>Fernando Mutepa</t>
+  </si>
+  <si>
+    <t>Carolina Manuel</t>
+  </si>
+  <si>
+    <t>040100565500I</t>
+  </si>
+  <si>
+    <t>+25886</t>
+  </si>
+  <si>
+    <t>Instituto Industrial Nampula</t>
+  </si>
+  <si>
+    <t>Munguambe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvencio Mparruquino </t>
+  </si>
+  <si>
+    <t>1976-04-09</t>
+  </si>
+  <si>
+    <t>GonÇalves Munguambe</t>
+  </si>
+  <si>
+    <t>Neli Timba Munguambe</t>
+  </si>
+  <si>
+    <t>110100320998Q</t>
+  </si>
+  <si>
+    <t>+258827838190</t>
+  </si>
+  <si>
+    <t>Mubetei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horacio Samussone </t>
+  </si>
+  <si>
+    <t>1979-02-13</t>
+  </si>
+  <si>
+    <t>Samussone Mubetei</t>
+  </si>
+  <si>
+    <t>Salfina Mazuze</t>
+  </si>
+  <si>
+    <t>+258820416960</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Joaquim Chissano</t>
+  </si>
+  <si>
+    <t>Moiane</t>
+  </si>
+  <si>
+    <t>Marcos Vacelino De Jesus</t>
+  </si>
+  <si>
+    <t>1993-06-17</t>
+  </si>
+  <si>
+    <t>Armando Otilio Moiane</t>
+  </si>
+  <si>
+    <t>Lina JÚlio Novela</t>
+  </si>
+  <si>
+    <t>Cartao de Eleitor</t>
+  </si>
+  <si>
+    <t>+258845484397</t>
+  </si>
+  <si>
+    <t>Mazivila</t>
+  </si>
+  <si>
+    <t>Bernardo Boavida</t>
+  </si>
+  <si>
+    <t>1979-10-19</t>
+  </si>
+  <si>
+    <t>Boavida Mazivila</t>
+  </si>
+  <si>
+    <t>Marta Bazima</t>
+  </si>
+  <si>
+    <t>090304183638Q</t>
+  </si>
+  <si>
+    <t>+258821446960</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Chokwe</t>
+  </si>
+  <si>
+    <t>Mavuie</t>
+  </si>
+  <si>
+    <t>Adelina Paulino</t>
+  </si>
+  <si>
+    <t>1986-05-26</t>
+  </si>
+  <si>
+    <t>Paulino JosÉ Mavuie</t>
+  </si>
+  <si>
+    <t>Rosita Filipe Mate</t>
+  </si>
+  <si>
+    <t>Talao de Bilhete de Identificacao</t>
+  </si>
+  <si>
+    <t>110349013G</t>
+  </si>
+  <si>
+    <t>+258841346269</t>
+  </si>
+  <si>
+    <t>Escola Josina Machel</t>
+  </si>
+  <si>
+    <t>Matsinhe</t>
+  </si>
+  <si>
+    <t>Gracio Estevao</t>
+  </si>
+  <si>
+    <t>1993-12-11</t>
+  </si>
+  <si>
+    <t>Estevao Fabiao Matsinhe</t>
+  </si>
+  <si>
+    <t>Isabel Alfredo Mondlane</t>
+  </si>
+  <si>
+    <t>110604030786J</t>
+  </si>
+  <si>
+    <t>+258820044936</t>
+  </si>
+  <si>
+    <t>Outra - Cid.Maputo</t>
+  </si>
+  <si>
+    <t>Maguaje</t>
+  </si>
+  <si>
+    <t>Moises Antonio</t>
+  </si>
+  <si>
+    <t>1975-06-20</t>
+  </si>
+  <si>
+    <t>Antonio Maguaje</t>
+  </si>
+  <si>
+    <t>Isaura Tembane</t>
+  </si>
+  <si>
+    <t>090101684219N</t>
+  </si>
+  <si>
+    <t>+258842030008</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Manjacaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magaia </t>
+  </si>
+  <si>
+    <t>Cremilda Domingas Joao</t>
+  </si>
+  <si>
+    <t>1985-10-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joao  Jumela Magaia </t>
+  </si>
+  <si>
+    <t>Elisa Chiringo</t>
+  </si>
+  <si>
+    <t>110100262506N</t>
+  </si>
+  <si>
+    <t>+258825286166</t>
+  </si>
+  <si>
+    <t>Instituto Comercial de Maputo</t>
+  </si>
+  <si>
+    <t>Macuacua</t>
+  </si>
+  <si>
+    <t>Renato Valente</t>
+  </si>
+  <si>
+    <t>1978-12-01</t>
+  </si>
+  <si>
+    <t>Valente Mussengane Macuacua</t>
+  </si>
+  <si>
+    <t>Helena Massingue</t>
+  </si>
+  <si>
+    <t>090302622373C</t>
+  </si>
+  <si>
+    <t>+258825343584</t>
+  </si>
+  <si>
+    <t>Langa</t>
+  </si>
+  <si>
+    <t>Albino Marcelo</t>
+  </si>
+  <si>
+    <t>1984-04-01</t>
+  </si>
+  <si>
+    <t>Incognito</t>
+  </si>
+  <si>
+    <t>Clementina Langa</t>
+  </si>
+  <si>
+    <t>110201758323J</t>
+  </si>
+  <si>
+    <t>+258845100200</t>
+  </si>
+  <si>
+    <t>Huo</t>
+  </si>
+  <si>
+    <t>Mario Carlos Uacela</t>
+  </si>
+  <si>
+    <t>1985-09-21</t>
+  </si>
+  <si>
+    <t>Carlos Uacela Huo</t>
+  </si>
+  <si>
+    <t>Ana Sevene Vilanculos</t>
+  </si>
+  <si>
+    <t>080104432372B</t>
+  </si>
+  <si>
+    <t>+258820403700</t>
+  </si>
+  <si>
+    <t>Escola 29 de Setembro</t>
+  </si>
+  <si>
+    <t>Guambe</t>
+  </si>
+  <si>
+    <t>Hamita Celeste Armando</t>
+  </si>
+  <si>
+    <t>1993-07-07</t>
+  </si>
+  <si>
+    <t>Armando Artur Guambe</t>
+  </si>
+  <si>
+    <t>Marta Salvador Tovela</t>
+  </si>
+  <si>
+    <t>110100422903M</t>
+  </si>
+  <si>
+    <t>+258827775562</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Dava</t>
+  </si>
+  <si>
+    <t>Azarias Jorge</t>
+  </si>
+  <si>
+    <t>1990-10-21</t>
+  </si>
+  <si>
+    <t>Jorge Dava</t>
+  </si>
+  <si>
+    <t>Helena Fabiao Bila</t>
+  </si>
+  <si>
+    <t>090100172125J</t>
+  </si>
+  <si>
+    <t>+258843653924</t>
+  </si>
+  <si>
+    <t>Cuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulce Francisco </t>
+  </si>
+  <si>
+    <t>1985-07-19</t>
+  </si>
+  <si>
+    <t>Francisco Cuna</t>
+  </si>
+  <si>
+    <t>Helena Biza</t>
+  </si>
+  <si>
+    <t>090301857505N</t>
+  </si>
+  <si>
+    <t>+258826095427</t>
+  </si>
+  <si>
+    <t>Chilaule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogerio Artur </t>
+  </si>
+  <si>
+    <t>1992-06-09</t>
+  </si>
+  <si>
+    <t>Artur Francisco Chilaule</t>
+  </si>
+  <si>
+    <t>BILHETE DE IDENTIDADE</t>
+  </si>
+  <si>
+    <t>+258824862976</t>
+  </si>
+  <si>
+    <t>Chau</t>
+  </si>
+  <si>
+    <t>Ana Domingas  Arlindo</t>
+  </si>
+  <si>
+    <t>1995-03-16</t>
+  </si>
+  <si>
+    <t>Arlindo JÚlio Chau</t>
+  </si>
+  <si>
+    <t>Domingas A. Eduardo Nhaca</t>
+  </si>
+  <si>
+    <t>100100624471Q</t>
+  </si>
+  <si>
+    <t>+258848723296</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Matola</t>
+  </si>
+  <si>
+    <t>Chana</t>
+  </si>
+  <si>
+    <t>Manuel Sebastiao</t>
+  </si>
+  <si>
+    <t>1990-02-16</t>
+  </si>
+  <si>
+    <t>Manuel Sebastiao Chana</t>
+  </si>
+  <si>
+    <t>Ana Maria Muchanga</t>
+  </si>
+  <si>
+    <t>+258849905460</t>
+  </si>
+  <si>
+    <t>Escola Secundaria do Xai-Xai</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Maria Almira Prudencio Carlos</t>
+  </si>
+  <si>
+    <t>1993-12-30</t>
+  </si>
+  <si>
+    <t>Prudencio Miguel Carlos</t>
+  </si>
+  <si>
+    <t>Clara Macama</t>
+  </si>
+  <si>
+    <t>110100037188B</t>
+  </si>
+  <si>
+    <t>+258826854437</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -314,6 +1078,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -1014,7 +2063,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1030,7 +2079,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1046,7 +2095,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1062,7 +2111,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1078,7 +2127,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1093,9 +2142,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1103,7 +2150,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1114,7 +2161,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1123,7 +2170,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1135,7 +2182,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1143,7 +2190,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -1239,7 +2286,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -1282,7 +2329,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -1609,7 +2656,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1625,7 +2672,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1641,7 +2688,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1657,7 +2704,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1673,7 +2720,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1688,9 +2735,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1698,7 +2743,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1709,7 +2754,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1718,7 +2763,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1730,7 +2775,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1738,7 +2783,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -1834,7 +2879,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -1877,7 +2922,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2204,7 +3249,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2220,7 +3265,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2236,7 +3281,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2252,7 +3297,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2268,7 +3313,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2283,9 +3328,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2293,7 +3336,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2304,7 +3347,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2313,7 +3356,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2325,7 +3368,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2429,7 +3472,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2472,7 +3515,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2799,7 +3842,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2815,7 +3858,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2831,7 +3874,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2847,7 +3890,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2863,7 +3906,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2878,9 +3921,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2888,7 +3929,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2899,7 +3940,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2908,7 +3949,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2920,7 +3961,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3024,7 +4065,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3067,7 +4108,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3394,7 +4435,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3410,7 +4451,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3426,7 +4467,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3442,7 +4483,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3458,7 +4499,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3473,9 +4514,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3483,7 +4522,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3494,7 +4533,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3503,7 +4542,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3515,7 +4554,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3523,7 +4562,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3619,7 +4658,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3662,7 +4701,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3989,7 +5028,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4005,7 +5044,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4021,7 +5060,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4037,7 +5076,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4053,7 +5092,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4068,9 +5107,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4078,7 +5115,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4089,7 +5126,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4098,7 +5135,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4110,7 +5147,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4118,7 +5155,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4214,7 +5251,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4257,7 +5294,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4584,7 +5621,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4600,7 +5637,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4616,7 +5653,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4632,7 +5669,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4648,7 +5685,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4663,9 +5700,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4673,7 +5708,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4684,7 +5719,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4693,7 +5728,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4705,7 +5740,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4713,7 +5748,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4809,7 +5844,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4852,7 +5887,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5179,7 +6214,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5195,7 +6230,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5211,7 +6246,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5227,7 +6262,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5243,7 +6278,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5258,9 +6293,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5268,7 +6301,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5279,7 +6312,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5288,7 +6321,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5300,7 +6333,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5308,7 +6341,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5404,7 +6437,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5447,7 +6480,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5774,7 +6807,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5790,7 +6823,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5806,7 +6839,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5822,7 +6855,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5838,7 +6871,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5853,9 +6886,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5863,7 +6894,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5874,7 +6905,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5883,7 +6914,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5895,7 +6926,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5903,7 +6934,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5999,7 +7030,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6042,7 +7073,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6369,7 +7400,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6385,7 +7416,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6401,7 +7432,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6417,7 +7448,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6433,7 +7464,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6448,9 +7479,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6458,7 +7487,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6469,7 +7498,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6478,7 +7507,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6490,7 +7519,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6498,7 +7527,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6594,7 +7623,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6637,7 +7666,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7043,9 +8072,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7053,7 +8080,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7064,7 +8091,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7073,7 +8100,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7085,7 +8112,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7093,7 +8120,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7189,7 +8216,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7232,7 +8259,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7559,7 +8586,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7575,7 +8602,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7591,7 +8618,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7607,7 +8634,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7623,7 +8650,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7638,9 +8665,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>202</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7648,7 +8673,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7659,7 +8684,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7668,7 +8693,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7680,7 +8705,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7688,7 +8713,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7784,7 +8809,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7827,7 +8852,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8154,7 +9179,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8170,7 +9195,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8186,7 +9211,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8202,7 +9227,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8218,7 +9243,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8233,9 +9258,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>202</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8243,7 +9266,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8254,7 +9277,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8263,7 +9286,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8275,7 +9298,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8283,7 +9306,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8379,7 +9402,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8422,7 +9445,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8749,7 +9772,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8765,7 +9788,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8781,7 +9804,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8797,7 +9820,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8813,7 +9836,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8828,9 +9851,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8838,7 +9859,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8849,7 +9870,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8858,7 +9879,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8870,7 +9891,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8878,7 +9899,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8974,7 +9995,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9017,7 +10038,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9344,7 +10365,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9360,7 +10381,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9376,7 +10397,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9392,7 +10413,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9408,7 +10429,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9423,9 +10444,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9433,7 +10452,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9444,7 +10463,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9453,7 +10472,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9465,7 +10484,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9473,7 +10492,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9569,7 +10588,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9612,7 +10631,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9939,7 +10958,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9955,7 +10974,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9971,7 +10990,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9987,7 +11006,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10003,7 +11022,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10018,9 +11037,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10028,7 +11045,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10039,7 +11056,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10048,7 +11065,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10060,7 +11077,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10068,7 +11085,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10164,7 +11181,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10207,7 +11224,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10534,7 +11551,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10550,7 +11567,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10566,7 +11583,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10582,7 +11599,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10611,9 +11628,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10621,7 +11636,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10632,7 +11647,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10641,7 +11656,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10653,7 +11668,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10661,7 +11676,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10757,7 +11772,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10800,7 +11815,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11127,7 +12142,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11143,7 +12158,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11159,7 +12174,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11175,7 +12190,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11191,7 +12206,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11206,9 +12221,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11216,7 +12229,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11227,7 +12240,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11236,7 +12249,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11248,7 +12261,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11256,7 +12269,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11352,7 +12365,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11395,7 +12408,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11722,7 +12735,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11738,7 +12751,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11754,7 +12767,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11770,7 +12783,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11786,7 +12799,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11801,9 +12814,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11811,7 +12822,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11822,7 +12833,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11831,7 +12842,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11843,7 +12854,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11947,7 +12958,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11990,7 +13001,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12317,7 +13328,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12333,7 +13344,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12349,7 +13360,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12365,7 +13376,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12381,7 +13392,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12396,9 +13407,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12406,7 +13415,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12417,7 +13426,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12426,7 +13435,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12438,7 +13447,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12446,7 +13455,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12542,7 +13551,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12585,7 +13594,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12940,7 +13949,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12956,7 +13965,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12972,7 +13981,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12988,7 +13997,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13004,7 +14013,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13019,9 +14028,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13029,7 +14036,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13040,7 +14047,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13049,7 +14056,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13061,7 +14068,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13069,7 +14076,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13165,7 +14172,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13208,7 +14215,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13563,7 +14570,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13579,7 +14586,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13595,7 +14602,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13611,7 +14618,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13627,7 +14634,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13642,9 +14649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13652,7 +14657,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13663,7 +14668,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13672,7 +14677,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13684,7 +14689,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13692,7 +14697,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13788,7 +14793,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13831,7 +14836,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14158,7 +15163,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14174,7 +15179,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14190,7 +15195,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14206,7 +15211,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14222,7 +15227,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14237,9 +15242,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14247,7 +15250,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14258,7 +15261,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14267,7 +15270,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14279,7 +15282,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14287,7 +15290,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14383,7 +15386,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14426,7 +15429,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14753,7 +15756,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14769,7 +15772,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14785,7 +15788,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14801,7 +15804,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14817,7 +15820,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14832,9 +15835,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14842,7 +15843,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14853,7 +15854,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14862,7 +15863,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14874,7 +15875,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14882,7 +15883,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14978,7 +15979,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15021,7 +16022,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15348,7 +16349,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15364,7 +16365,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15380,7 +16381,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15396,7 +16397,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15412,7 +16413,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15427,9 +16428,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15437,7 +16436,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15448,7 +16447,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15457,7 +16456,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15469,7 +16468,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15477,7 +16476,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15573,7 +16572,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15616,7 +16615,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15943,7 +16942,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15959,7 +16958,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15975,7 +16974,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15991,7 +16990,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16007,7 +17006,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16022,9 +17021,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16032,7 +17029,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16043,7 +17040,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16052,7 +17049,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16064,7 +17061,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16072,7 +17069,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16168,7 +17165,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16211,7 +17208,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16538,7 +17535,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16554,7 +17551,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16570,7 +17567,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16586,7 +17583,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16602,7 +17599,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16617,9 +17614,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16627,7 +17622,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16638,7 +17633,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16647,7 +17642,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16659,7 +17654,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16667,7 +17662,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16763,7 +17758,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16806,7 +17801,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
